--- a/Python_Code/template.xlsx
+++ b/Python_Code/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/353c80b9e2055a16/Documents/Programming/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AtoZ_Invoice\Python_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{FCA3BDD1-283D-4B81-B9E7-D7C724AE43D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E84C161-1AB7-47BA-AC90-CB4B4EA057AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A013E-AEA9-49BC-8053-10C2C3547D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="0" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APPENDIX R" sheetId="9" r:id="rId1"/>
@@ -671,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -805,36 +805,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -890,73 +860,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="100">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1011,8 +916,6 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1034,7 +937,6 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1043,8 +945,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1058,7 +958,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1075,61 +975,42 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="71" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="71" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="69" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="71" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="71"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="69"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="70" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="70" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="68" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="68" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="87" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="17" xfId="92" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="15" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="87" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1141,11 +1022,21 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="69" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="69" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="100">
+  <cellStyles count="95">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - Accent2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1199,53 +1090,48 @@
     <cellStyle name="Berechnung" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Calculation" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Check Cell" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Dezimal [0]_Compiling Utility Macros" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Dezimal_Compiling Utility Macros" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Eingabe" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Ergebnis" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Erklärender Text" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Explanatory Text" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Good" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Gut" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Heading 1" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Heading 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Heading 3" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Heading 4" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Input" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Linked Cell" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Neutral" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Normal_AIDA Table_30.11.2019" xfId="70" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Normal_AIDA Table_30.6.2014" xfId="71" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Note" xfId="72" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Notiz" xfId="73" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Notiz 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Output" xfId="75" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Schlecht" xfId="76" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Standard_Anpassen der Amortisation" xfId="77" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Title" xfId="78" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Total" xfId="79" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Überschrift" xfId="80" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Überschrift 1" xfId="81" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Überschrift 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Überschrift 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Überschrift 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="85" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Währung [0]_Compiling Utility Macros" xfId="86" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Währung_Compiling Utility Macros" xfId="87" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Warnender Text" xfId="88" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Warning Text" xfId="89" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Zelle überprüfen" xfId="90" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Нормален 10" xfId="91" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Нормален 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Нормален 3" xfId="93" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Нормален 4" xfId="94" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Нормален 5" xfId="95" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Нормален 6" xfId="96" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Нормален 7" xfId="97" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Нормален 8" xfId="98" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Нормален 9" xfId="99" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Eingabe" xfId="54" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Ergebnis" xfId="55" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Erklärender Text" xfId="56" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Explanatory Text" xfId="57" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Good" xfId="58" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Gut" xfId="59" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Heading 1" xfId="60" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Heading 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Heading 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Heading 4" xfId="63" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Input" xfId="64" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Linked Cell" xfId="65" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Neutral" xfId="66" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal_AIDA Table_30.11.2019" xfId="68" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal_AIDA Table_30.6.2014" xfId="69" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Note" xfId="70" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Notiz" xfId="71" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Notiz 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Output" xfId="73" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Schlecht" xfId="74" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="75" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Total" xfId="76" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Überschrift" xfId="77" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Überschrift 1" xfId="78" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Überschrift 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Überschrift 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Überschrift 4" xfId="81" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="82" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Warnender Text" xfId="83" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Warning Text" xfId="84" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Zelle überprüfen" xfId="85" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Нормален 10" xfId="86" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Нормален 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Нормален 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Нормален 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Нормален 5" xfId="90" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Нормален 6" xfId="91" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Нормален 7" xfId="92" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Нормален 8" xfId="93" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Нормален 9" xfId="94" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1766,9 +1652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1806,7 +1692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1912,7 +1798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2066,10 +1952,10 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13:C13"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="8" customWidth="1"/>
@@ -2087,98 +1973,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2219,80 +2105,80 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:12" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32">
         <f ca="1">SUM(INDIRECT("I12:I"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="32">
         <f ca="1">SUM(INDIRECT("J12:J"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
